--- a/dtpu_configurations/only_integer8/120mhz/mxu_4x4/utilization.xlsx
+++ b/dtpu_configurations/only_integer8/120mhz/mxu_4x4/utilization.xlsx
@@ -154,13 +154,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>17.468046188354492</v>
+        <v>17.449247360229492</v>
       </c>
       <c r="C2" t="n" s="4">
         <v>5.344827651977539</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>11.668232917785645</v>
+        <v>11.669173240661621</v>
       </c>
       <c r="E2" t="n" s="4">
         <v>46.42856979370117</v>
